--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dante\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\NuevasTecnicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A2264D-509F-415A-87C7-416649274A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C5D07C-0C3D-45E9-986A-12F4AFFDCE6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88A3A66B-9598-453B-85AF-5DA63F61ED50}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{88A3A66B-9598-453B-85AF-5DA63F61ED50}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan mensual" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Semana 1</t>
   </si>
@@ -140,6 +140,30 @@
   </si>
   <si>
     <t>Corregir la estructura de la base de datos en base a la tutoría agendada.</t>
+  </si>
+  <si>
+    <t>19 de septiembre</t>
+  </si>
+  <si>
+    <t>21 de septiembre</t>
+  </si>
+  <si>
+    <t>23 de septiembre</t>
+  </si>
+  <si>
+    <t>Ingresar datos en la base Ranti Ranti</t>
+  </si>
+  <si>
+    <t>Creacion del CRUD de Cliente y  Administradores</t>
+  </si>
+  <si>
+    <t>Creacion del CRUD de Producto</t>
+  </si>
+  <si>
+    <t>24 de septiembre</t>
+  </si>
+  <si>
+    <t>Subir el proyecto a github</t>
   </si>
 </sst>
 </file>
@@ -569,7 +593,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -675,6 +699,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,12 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1032,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A906E748-BA35-47E4-83E1-6AE17A87CE0A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -1045,36 +1070,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="44" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="44" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="47" t="s">
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="46"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="48"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1188,23 +1213,23 @@
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="39"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
@@ -1270,23 +1295,23 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="39"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="41"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
@@ -1352,23 +1377,23 @@
       <c r="Q13" s="30"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="41"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="43"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
@@ -1481,9 +1506,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0F1B92-ED64-492B-AE71-185726805406}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1492,10 +1519,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="38" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1515,7 +1542,40 @@
         <v>34</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>